--- a/outputs/finalValues.xlsx
+++ b/outputs/finalValues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianesamson/Projects/complexity-challenge-2018/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537B827F-0784-2D41-B240-4D3AEEAB17BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DBE276-026A-4F41-94F7-A49FE24CB13F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="-20700" windowWidth="28040" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="560" windowWidth="28040" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finalValues" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,13 @@
     <sheet name="safe" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">finalValues!$B$11:$B$512</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">finalValues!$B$11:$B$512</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">finalValues!$B$11:$B$512</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">finalValues!$B$11:$B$512</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">finalValues!$B$11:$B$512</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1764,7 +1771,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1956,6 +1963,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2118,7 +2131,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
@@ -2139,6 +2152,12 @@
     <xf numFmtId="43" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2237,6 +2256,798 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{7B55B61C-532D-1743-BA0A-FD2E7418EC0A}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataLabels pos="inEnd">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="1000"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="369">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" cap="none" spc="20"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3962400</xdr:colOff>
+      <xdr:row>516</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>538</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528178CC-F83E-AD4D-B654-1729F925CE4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3962400" y="104857550"/>
+              <a:ext cx="7239000" cy="4514850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2539,14 +3350,14 @@
   <dimension ref="A1:AC512"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.33203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="71.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
@@ -2627,40 +3438,40 @@
       <c r="E2" s="3">
         <v>10000</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <v>11184</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="19">
         <v>12062.4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="19">
         <v>11683.6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="7">
         <v>11010.8</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="19">
         <v>9448</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="W2" s="17">
+      <c r="W2" s="19">
         <v>8264.4</v>
       </c>
       <c r="Y2" t="s">
@@ -2689,40 +3500,40 @@
       <c r="E3" s="3">
         <v>9662.4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>10481</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="19">
         <v>11616.6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="19">
         <v>10445.200000000001</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="7">
         <v>10161.200000000001</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="19">
         <v>9188.4</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="19">
         <v>8217.7999999999993</v>
       </c>
       <c r="Y3" t="s">
@@ -2745,40 +3556,40 @@
       <c r="E4" s="3">
         <v>7328.6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="7">
         <v>9993.4</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="19">
         <v>10376</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="19">
         <v>10013.799999999999</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="7">
         <v>10105.799999999999</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="19">
         <v>8966.6</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="19">
         <v>7669.6</v>
       </c>
       <c r="Y4" t="s">
@@ -2801,46 +3612,46 @@
       <c r="E5" s="3">
         <v>5287.4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>9963</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="19">
         <v>10007.200000000001</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="19">
         <v>9755.7999999999993</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="7">
         <v>9958</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="19">
         <v>8903.7999999999993</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="19">
         <v>7540.2</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="23">
         <v>6711</v>
       </c>
     </row>
@@ -2857,40 +3668,40 @@
       <c r="E6" s="3">
         <v>1139.4000000000001</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>8500.7999999999993</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="19">
         <v>9891.7999999999993</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="19">
         <v>9687.6</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="7">
         <v>9705.4</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="19">
         <v>8693.7999999999993</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="W6" s="17">
+      <c r="W6" s="19">
         <v>7402</v>
       </c>
       <c r="Y6" t="s">
@@ -2913,40 +3724,40 @@
       <c r="E7" s="3">
         <v>1015.6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>8414</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="19">
         <v>9459.2000000000007</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="19">
         <v>9602.4</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="7">
         <v>9447.6</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="19">
         <v>8655</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="19">
         <v>7381.4</v>
       </c>
       <c r="Y7" t="s">
@@ -2969,40 +3780,40 @@
       <c r="E8" s="3">
         <v>348.8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>7275.8</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="19">
         <v>9185</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="19">
         <v>9482.6</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="7">
         <v>9147.6</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="19">
         <v>8630.4</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="19">
         <v>7277.4</v>
       </c>
       <c r="Y8" t="s">
@@ -3025,40 +3836,40 @@
       <c r="E9" s="3">
         <v>167.2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>7154</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <v>8659.7999999999993</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="19">
         <v>9432.6</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="7">
         <v>9112.7999999999993</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="19">
         <v>8526.7999999999993</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <v>7251.8</v>
       </c>
       <c r="Y9" t="s">
@@ -3081,40 +3892,40 @@
       <c r="E10" s="3">
         <v>140.4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>7067</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="19">
         <v>8653.6</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="19">
         <v>9322.2000000000007</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="7">
         <v>8621.4</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="19">
         <v>8384.6</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="19">
         <v>7234.8</v>
       </c>
       <c r="Y10" t="s">
@@ -3131,40 +3942,40 @@
       <c r="B11" s="2">
         <v>10481</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <v>6989.4</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="19">
         <v>8644.6</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="19">
         <v>9072.6</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="7">
         <v>8540.6</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="19">
         <v>8191.2</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="19">
         <v>7204.8</v>
       </c>
     </row>
@@ -3341,10 +4152,10 @@
       <c r="T15" s="17">
         <v>7955.8</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="21">
         <v>6748.4</v>
       </c>
     </row>
@@ -4037,10 +4848,10 @@
       <c r="H31" s="2">
         <v>1806.8</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="21">
         <v>6502</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -4319,10 +5130,10 @@
       <c r="N37" s="17">
         <v>6932.4</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="23">
         <v>6871.8</v>
       </c>
       <c r="S37" s="1" t="s">
@@ -4661,10 +5472,10 @@
       <c r="Q47" s="2">
         <v>6318.4</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="T47" s="17">
+      <c r="T47" s="21">
         <v>5705.6</v>
       </c>
     </row>
@@ -5738,10 +6549,10 @@
       <c r="K80" s="17">
         <v>1816.8</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M80" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="N80" s="17">
+      <c r="N80" s="21">
         <v>4425.8</v>
       </c>
       <c r="P80" t="s">
@@ -10029,28 +10840,30 @@
     <sortCondition descending="1" ref="Z2:Z10"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF0090F-ECA9-6544-B7C1-BF3C70158DB6}">
-  <dimension ref="A1:K255"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -10058,20 +10871,23 @@
         <v>10000</v>
       </c>
       <c r="C1" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D1" s="2">
         <v>10481</v>
       </c>
-      <c r="D1" s="5">
-        <f>C1-B1</f>
+      <c r="E1" s="5">
+        <f>D1-C1</f>
         <v>481</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -10079,14 +10895,17 @@
         <v>10000</v>
       </c>
       <c r="C2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2">
         <v>7275.8</v>
       </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:D65" si="0">C2-B2</f>
+      <c r="E2" s="5">
+        <f t="shared" ref="E2:E65" si="0">D2-C2</f>
         <v>-2724.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -10094,29 +10913,32 @@
         <v>10000</v>
       </c>
       <c r="C3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2">
         <v>5953.2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
         <v>-4046.8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>514</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10124,37 +10946,40 @@
         <v>10000</v>
       </c>
       <c r="C4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2">
         <v>9993.4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>-6.6000000000003638</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7">
-        <f>AVERAGEIF(A1:A255, "=*"&amp;F4&amp;"*", C1:C255)</f>
+      <c r="H4" s="7">
+        <f>AVERAGEIF(A1:A255, "=*"&amp;G4&amp;"*", D1:D255)</f>
         <v>7200.6703125000004</v>
       </c>
-      <c r="H4" s="6">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F4&amp;"*", D1:D255, "&gt;0")</f>
+      <c r="I4" s="6">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G4&amp;"*", E1:E255, "&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="I4" s="8">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F4&amp;"*", D1:D255, "&gt;0")/H4</f>
+      <c r="J4" s="8">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G4&amp;"*", E1:E255, "&gt;0")/I4</f>
         <v>1017.342857142857</v>
       </c>
-      <c r="J4">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F4&amp;"*", D1:D255, "&lt;0")</f>
+      <c r="K4">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G4&amp;"*", E1:E255, "&lt;0")</f>
         <v>121</v>
       </c>
-      <c r="K4" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F4&amp;"*", D1:D255, "&lt;0")/J4</f>
+      <c r="L4" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G4&amp;"*", E1:E255, "&lt;0")/K4</f>
         <v>-3020.1289256198347</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -10162,37 +10987,40 @@
         <v>10000</v>
       </c>
       <c r="C5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2">
         <v>9963</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>-37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2">
-        <f>AVERAGEIF(A1:A255, "=*"&amp;F5&amp;"*", C1:C255)</f>
+      <c r="H5" s="2">
+        <f>AVERAGEIF(A1:A255, "=*"&amp;G5&amp;"*", D1:D255)</f>
         <v>6522.0999999999985</v>
       </c>
-      <c r="H5">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F5&amp;"*", D1:D255, "&gt;0")</f>
+      <c r="I5">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G5&amp;"*", E1:E255, "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I5" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F5&amp;"*", D1:D255, "&gt;0")/H5</f>
+      <c r="J5" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G5&amp;"*", E1:E255, "&gt;0")/I5</f>
         <v>445.20000000000073</v>
       </c>
-      <c r="J5">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F5&amp;"*", D1:D255, "&lt;0")</f>
+      <c r="K5">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G5&amp;"*", E1:E255, "&lt;0")</f>
         <v>127</v>
       </c>
-      <c r="K5" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F5&amp;"*", D1:D255, "&lt;0")/J5</f>
+      <c r="L5" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G5&amp;"*", E1:E255, "&lt;0")/K5</f>
         <v>-3508.7905511811023</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -10200,37 +11028,40 @@
         <v>10000</v>
       </c>
       <c r="C6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2">
         <v>7067</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>-2933</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10">
-        <f>AVERAGEIF(A1:A255, "=*"&amp;F6&amp;"*", C1:C255)</f>
+      <c r="H6" s="10">
+        <f>AVERAGEIF(A1:A255, "=*"&amp;G6&amp;"*", D1:D255)</f>
         <v>6233.6187499999996</v>
       </c>
-      <c r="H6" s="9">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F6&amp;"*", D1:D255, "&gt;0")</f>
+      <c r="I6" s="9">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G6&amp;"*", E1:E255, "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I6" s="11">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F6&amp;"*", D1:D255, "&gt;0")/H6</f>
+      <c r="J6" s="11">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G6&amp;"*", E1:E255, "&gt;0")/I6</f>
         <v>13.799999999999272</v>
       </c>
-      <c r="J6" s="9">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F6&amp;"*", D1:D255, "&lt;0")</f>
+      <c r="K6" s="9">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G6&amp;"*", E1:E255, "&lt;0")</f>
         <v>127</v>
       </c>
-      <c r="K6" s="11">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F6&amp;"*", D1:D255, "&lt;0")/J6</f>
+      <c r="L6" s="11">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G6&amp;"*", E1:E255, "&lt;0")/K6</f>
         <v>-3796.1464566929135</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -10238,37 +11069,40 @@
         <v>10000</v>
       </c>
       <c r="C7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2">
         <v>5231.6000000000004</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>-4768.3999999999996</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="7">
-        <f>AVERAGEIF(A1:A255, "=*"&amp;F7&amp;"*", C1:C255)</f>
+      <c r="H7" s="7">
+        <f>AVERAGEIF(A1:A255, "=*"&amp;G7&amp;"*", D1:D255)</f>
         <v>7450.2500000000009</v>
       </c>
-      <c r="H7" s="6">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F7&amp;"*", D1:D255, "&gt;0")</f>
+      <c r="I7" s="6">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G7&amp;"*", E1:E255, "&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="I7" s="8">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F7&amp;"*", D1:D255, "&gt;0")/H7</f>
+      <c r="J7" s="8">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G7&amp;"*", E1:E255, "&gt;0")/I7</f>
         <v>686.25</v>
       </c>
-      <c r="J7">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F7&amp;"*", D1:D255, "&lt;0")</f>
+      <c r="K7">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G7&amp;"*", E1:E255, "&lt;0")</f>
         <v>120</v>
       </c>
-      <c r="K7" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F7&amp;"*", D1:D255, "&lt;0")/J7</f>
+      <c r="L7" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G7&amp;"*", E1:E255, "&lt;0")/K7</f>
         <v>-2765.4833333333345</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -10276,37 +11110,40 @@
         <v>10000</v>
       </c>
       <c r="C8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2">
         <v>6989.4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>-3010.6000000000004</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7">
-        <f>AVERAGEIF(A1:A255, "=*"&amp;F8&amp;"*", C1:C255)</f>
+      <c r="H8" s="7">
+        <f>AVERAGEIF(A1:A255, "=*"&amp;G8&amp;"*", D1:D255)</f>
         <v>7735.8609375000005</v>
       </c>
-      <c r="H8" s="6">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F8&amp;"*", D1:D255, "&gt;0")</f>
+      <c r="I8" s="6">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G8&amp;"*", E1:E255, "&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="I8" s="8">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F8&amp;"*", D1:D255, "&gt;0")/H8</f>
+      <c r="J8" s="8">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G8&amp;"*", E1:E255, "&gt;0")/I8</f>
         <v>630.52500000000009</v>
       </c>
-      <c r="J8">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F8&amp;"*", D1:D255, "&lt;0")</f>
+      <c r="K8">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G8&amp;"*", E1:E255, "&lt;0")</f>
         <v>120</v>
       </c>
-      <c r="K8" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F8&amp;"*", D1:D255, "&lt;0")/J8</f>
+      <c r="L8" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G8&amp;"*", E1:E255, "&lt;0")/K8</f>
         <v>-2457.1166666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -10314,37 +11151,40 @@
         <v>10000</v>
       </c>
       <c r="C9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2">
         <v>7459.8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>-2540.1999999999998</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2">
-        <f>AVERAGEIF(A1:A255, "=*"&amp;F9&amp;"*", C1:C255)</f>
+      <c r="H9" s="2">
+        <f>AVERAGEIF(A1:A255, "=*"&amp;G9&amp;"*", D1:D255)</f>
         <v>6604.7015624999985</v>
       </c>
-      <c r="H9">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F9&amp;"*", D1:D255, "&gt;0")</f>
+      <c r="I9">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G9&amp;"*", E1:E255, "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I9" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F9&amp;"*", D1:D255, "&gt;0")/H9</f>
+      <c r="J9" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G9&amp;"*", E1:E255, "&gt;0")/I9</f>
         <v>105.79999999999927</v>
       </c>
-      <c r="J9">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F9&amp;"*", D1:D255, "&lt;0")</f>
+      <c r="K9">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G9&amp;"*", E1:E255, "&lt;0")</f>
         <v>127</v>
       </c>
-      <c r="K9" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F9&amp;"*", D1:D255, "&lt;0")/J9</f>
+      <c r="L9" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G9&amp;"*", E1:E255, "&lt;0")/K9</f>
         <v>-3422.8661417322828</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -10352,37 +11192,40 @@
         <v>10000</v>
       </c>
       <c r="C10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2">
         <v>6641</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>-3359</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2">
-        <f>AVERAGEIF(A1:A255, "=*"&amp;F10&amp;"*", C1:C255)</f>
+      <c r="H10" s="2">
+        <f>AVERAGEIF(A1:A255, "=*"&amp;G10&amp;"*", D1:D255)</f>
         <v>6354.6749999999993</v>
       </c>
-      <c r="H10">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F10&amp;"*", D1:D255, "&gt;0")</f>
+      <c r="I10">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G10&amp;"*", E1:E255, "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I10" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F10&amp;"*", D1:D255, "&gt;0")/H10</f>
+      <c r="J10" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G10&amp;"*", E1:E255, "&gt;0")/I10</f>
         <v>161.20000000000073</v>
       </c>
-      <c r="J10">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F10&amp;"*", D1:D255, "&lt;0")</f>
+      <c r="K10">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G10&amp;"*", E1:E255, "&lt;0")</f>
         <v>127</v>
       </c>
-      <c r="K10" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F10&amp;"*", D1:D255, "&lt;0")/J10</f>
+      <c r="L10" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G10&amp;"*", E1:E255, "&lt;0")/K10</f>
         <v>-3675.297637795275</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -10390,37 +11233,40 @@
         <v>10000</v>
       </c>
       <c r="C11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2">
         <v>12062.4</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>2062.3999999999996</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="2">
-        <f>AVERAGEIF(A1:A255, "=*"&amp;F11&amp;"*", C1:C255)</f>
+      <c r="H11" s="2">
+        <f>AVERAGEIF(A1:A255, "=*"&amp;G11&amp;"*", D1:D255)</f>
         <v>6684.5796874999996</v>
       </c>
-      <c r="H11">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F11&amp;"*", D1:D255, "&gt;0")</f>
+      <c r="I11">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G11&amp;"*", E1:E255, "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="I11" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F11&amp;"*", D1:D255, "&gt;0")/H11</f>
+      <c r="J11" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G11&amp;"*", E1:E255, "&gt;0")/I11</f>
         <v>1010.7999999999993</v>
       </c>
-      <c r="J11">
-        <f>COUNTIFS(A1:A255, "=*"&amp;F11&amp;"*", D1:D255, "&lt;0")</f>
+      <c r="K11">
+        <f>COUNTIFS(A1:A255, "=*"&amp;G11&amp;"*", E1:E255, "&lt;0")</f>
         <v>127</v>
       </c>
-      <c r="K11" s="5">
-        <f>SUMIFS(D1:D255, A1:A255, "=*"&amp;F11&amp;"*", D1:D255, "&lt;0")/J11</f>
+      <c r="L11" s="5">
+        <f>SUMIFS(E1:E255, A1:A255, "=*"&amp;G11&amp;"*", E1:E255, "&lt;0")/K11</f>
         <v>-3349.485039370079</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10428,14 +11274,17 @@
         <v>10000</v>
       </c>
       <c r="C12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2">
         <v>11616.6</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>1616.6000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -10443,14 +11292,17 @@
         <v>10000</v>
       </c>
       <c r="C13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2">
         <v>7653</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>-2347</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -10458,14 +11310,17 @@
         <v>10000</v>
       </c>
       <c r="C14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2">
         <v>7762.8</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>-2237.1999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -10473,14 +11328,17 @@
         <v>10000</v>
       </c>
       <c r="C15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2">
         <v>8644.6</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>-1355.3999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -10488,14 +11346,17 @@
         <v>10000</v>
       </c>
       <c r="C16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2">
         <v>4602.2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>-5397.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -10503,14 +11364,17 @@
         <v>10000</v>
       </c>
       <c r="C17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2">
         <v>9891.7999999999993</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>-108.20000000000073</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -10518,14 +11382,17 @@
         <v>10000</v>
       </c>
       <c r="C18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2">
         <v>9459.2000000000007</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>-540.79999999999927</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -10533,14 +11400,17 @@
         <v>10000</v>
       </c>
       <c r="C19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2">
         <v>6123.6</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>-3876.3999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -10548,14 +11418,17 @@
         <v>10000</v>
       </c>
       <c r="C20" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2">
         <v>5318.2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>-4681.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -10563,14 +11436,17 @@
         <v>10000</v>
       </c>
       <c r="C21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2">
         <v>6116.4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>-3883.6000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -10578,14 +11454,17 @@
         <v>10000</v>
       </c>
       <c r="C22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="2">
         <v>8240.6</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>-1759.3999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -10593,14 +11472,17 @@
         <v>10000</v>
       </c>
       <c r="C23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2">
         <v>8653.6</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>-1346.3999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -10608,14 +11490,17 @@
         <v>10000</v>
       </c>
       <c r="C24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="2">
         <v>5695.4</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>-4304.6000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -10623,14 +11508,17 @@
         <v>10000</v>
       </c>
       <c r="C25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="2">
         <v>4596.8</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>-5403.2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -10638,14 +11526,17 @@
         <v>10000</v>
       </c>
       <c r="C26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="2">
         <v>5639</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>-4361</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -10653,14 +11544,17 @@
         <v>10000</v>
       </c>
       <c r="C27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="2">
         <v>10007.200000000001</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>7.2000000000007276</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -10668,14 +11562,17 @@
         <v>10000</v>
       </c>
       <c r="C28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="2">
         <v>8420</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>-1580</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -10683,14 +11580,17 @@
         <v>10000</v>
       </c>
       <c r="C29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="2">
         <v>6982</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>-3018</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -10698,14 +11598,17 @@
         <v>10000</v>
       </c>
       <c r="C30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="2">
         <v>8505.2000000000007</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>-1494.7999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -10713,14 +11616,17 @@
         <v>10000</v>
       </c>
       <c r="C31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="2">
         <v>8411.4</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>-1588.6000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -10728,14 +11634,17 @@
         <v>10000</v>
       </c>
       <c r="C32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D32" s="2">
         <v>6971.6</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>-3028.3999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -10743,14 +11652,17 @@
         <v>10000</v>
       </c>
       <c r="C33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="2">
         <v>8659.7999999999993</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>-1340.2000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -10758,14 +11670,17 @@
         <v>10000</v>
       </c>
       <c r="C34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="2">
         <v>4859</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>-5141</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -10773,14 +11688,17 @@
         <v>10000</v>
       </c>
       <c r="C35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D35" s="2">
         <v>7075.2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <f t="shared" si="0"/>
         <v>-2924.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -10788,14 +11706,17 @@
         <v>10000</v>
       </c>
       <c r="C36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D36" s="2">
         <v>5380.8</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <f t="shared" si="0"/>
         <v>-4619.2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -10803,14 +11724,17 @@
         <v>10000</v>
       </c>
       <c r="C37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D37" s="2">
         <v>5484</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="5">
         <f t="shared" si="0"/>
         <v>-4516</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -10818,14 +11742,17 @@
         <v>10000</v>
       </c>
       <c r="C38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D38" s="2">
         <v>8906.2000000000007</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <f t="shared" si="0"/>
         <v>-1093.7999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -10833,14 +11760,17 @@
         <v>10000</v>
       </c>
       <c r="C39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D39" s="2">
         <v>9072.6</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <f t="shared" si="0"/>
         <v>-927.39999999999964</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -10848,14 +11778,17 @@
         <v>10000</v>
       </c>
       <c r="C40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D40" s="2">
         <v>5940.6</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E40" s="5">
         <f t="shared" si="0"/>
         <v>-4059.3999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -10863,14 +11796,17 @@
         <v>10000</v>
       </c>
       <c r="C41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D41" s="2">
         <v>6346.4</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="5">
         <f t="shared" si="0"/>
         <v>-3653.6000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -10878,14 +11814,17 @@
         <v>10000</v>
       </c>
       <c r="C42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D42" s="2">
         <v>6410.4</v>
       </c>
-      <c r="D42" s="5">
+      <c r="E42" s="5">
         <f t="shared" si="0"/>
         <v>-3589.6000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -10893,14 +11832,17 @@
         <v>10000</v>
       </c>
       <c r="C43" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="2">
         <v>7965</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <f t="shared" si="0"/>
         <v>-2035</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -10908,14 +11850,17 @@
         <v>10000</v>
       </c>
       <c r="C44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D44" s="2">
         <v>8551.4</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E44" s="5">
         <f t="shared" si="0"/>
         <v>-1448.6000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -10923,14 +11868,17 @@
         <v>10000</v>
       </c>
       <c r="C45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="2">
         <v>5868.8</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <f t="shared" si="0"/>
         <v>-4131.2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -10938,14 +11886,17 @@
         <v>10000</v>
       </c>
       <c r="C46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D46" s="2">
         <v>5246.4</v>
       </c>
-      <c r="D46" s="5">
+      <c r="E46" s="5">
         <f t="shared" si="0"/>
         <v>-4753.6000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -10953,14 +11904,17 @@
         <v>10000</v>
       </c>
       <c r="C47" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D47" s="2">
         <v>5774.8</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
         <f t="shared" si="0"/>
         <v>-4225.2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>142</v>
       </c>
@@ -10968,14 +11922,17 @@
         <v>10000</v>
       </c>
       <c r="C48" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="2">
         <v>11683.6</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
         <f t="shared" si="0"/>
         <v>1683.6000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -10983,14 +11940,17 @@
         <v>10000</v>
       </c>
       <c r="C49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="2">
         <v>8881.6</v>
       </c>
-      <c r="D49" s="5">
+      <c r="E49" s="5">
         <f t="shared" si="0"/>
         <v>-1118.3999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -10998,14 +11958,17 @@
         <v>10000</v>
       </c>
       <c r="C50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D50" s="2">
         <v>9322.2000000000007</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
         <f t="shared" si="0"/>
         <v>-677.79999999999927</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -11013,14 +11976,17 @@
         <v>10000</v>
       </c>
       <c r="C51" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D51" s="2">
         <v>9687.6</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
         <f t="shared" si="0"/>
         <v>-312.39999999999964</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -11028,14 +11994,17 @@
         <v>10000</v>
       </c>
       <c r="C52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D52" s="2">
         <v>9432.6</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <f t="shared" si="0"/>
         <v>-567.39999999999964</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -11043,14 +12012,17 @@
         <v>10000</v>
       </c>
       <c r="C53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="2">
         <v>8880.2000000000007</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="5">
         <f t="shared" si="0"/>
         <v>-1119.7999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -11058,14 +12030,17 @@
         <v>10000</v>
       </c>
       <c r="C54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D54" s="2">
         <v>9755.7999999999993</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E54" s="5">
         <f t="shared" si="0"/>
         <v>-244.20000000000073</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -11073,14 +12048,17 @@
         <v>10000</v>
       </c>
       <c r="C55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="2">
         <v>6867</v>
       </c>
-      <c r="D55" s="5">
+      <c r="E55" s="5">
         <f t="shared" si="0"/>
         <v>-3133</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -11088,14 +12066,17 @@
         <v>10000</v>
       </c>
       <c r="C56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D56" s="2">
         <v>6574.8</v>
       </c>
-      <c r="D56" s="5">
+      <c r="E56" s="5">
         <f t="shared" si="0"/>
         <v>-3425.2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -11103,14 +12084,17 @@
         <v>10000</v>
       </c>
       <c r="C57" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D57" s="2">
         <v>6962.2</v>
       </c>
-      <c r="D57" s="5">
+      <c r="E57" s="5">
         <f t="shared" si="0"/>
         <v>-3037.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -11118,14 +12102,17 @@
         <v>10000</v>
       </c>
       <c r="C58" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D58" s="2">
         <v>6463.8</v>
       </c>
-      <c r="D58" s="5">
+      <c r="E58" s="5">
         <f t="shared" si="0"/>
         <v>-3536.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -11133,14 +12120,17 @@
         <v>10000</v>
       </c>
       <c r="C59" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D59" s="2">
         <v>6932.4</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5">
         <f t="shared" si="0"/>
         <v>-3067.6000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>154</v>
       </c>
@@ -11148,14 +12138,17 @@
         <v>10000</v>
       </c>
       <c r="C60" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D60" s="2">
         <v>4452.2</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="5">
         <f t="shared" si="0"/>
         <v>-5547.8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -11163,14 +12156,17 @@
         <v>10000</v>
       </c>
       <c r="C61" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D61" s="2">
         <v>3548.4</v>
       </c>
-      <c r="D61" s="5">
+      <c r="E61" s="5">
         <f t="shared" si="0"/>
         <v>-6451.6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>156</v>
       </c>
@@ -11178,14 +12174,17 @@
         <v>10000</v>
       </c>
       <c r="C62" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D62" s="2">
         <v>4525.2</v>
       </c>
-      <c r="D62" s="5">
+      <c r="E62" s="5">
         <f t="shared" si="0"/>
         <v>-5474.8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -11193,14 +12192,17 @@
         <v>10000</v>
       </c>
       <c r="C63" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D63" s="2">
         <v>10445.200000000001</v>
       </c>
-      <c r="D63" s="5">
+      <c r="E63" s="5">
         <f t="shared" si="0"/>
         <v>445.20000000000073</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -11208,14 +12210,17 @@
         <v>10000</v>
       </c>
       <c r="C64" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D64" s="2">
         <v>7913.4</v>
       </c>
-      <c r="D64" s="5">
+      <c r="E64" s="5">
         <f t="shared" si="0"/>
         <v>-2086.6000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>159</v>
       </c>
@@ -11223,14 +12228,17 @@
         <v>10000</v>
       </c>
       <c r="C65" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D65" s="2">
         <v>7723.6</v>
       </c>
-      <c r="D65" s="5">
+      <c r="E65" s="5">
         <f t="shared" si="0"/>
         <v>-2276.3999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>160</v>
       </c>
@@ -11238,14 +12246,17 @@
         <v>10000</v>
       </c>
       <c r="C66" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D66" s="2">
         <v>8116</v>
       </c>
-      <c r="D66" s="5">
-        <f t="shared" ref="D66:D129" si="1">C66-B66</f>
+      <c r="E66" s="5">
+        <f t="shared" ref="E66:E129" si="1">D66-C66</f>
         <v>-1884</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>161</v>
       </c>
@@ -11253,14 +12264,17 @@
         <v>10000</v>
       </c>
       <c r="C67" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D67" s="2">
         <v>8183</v>
       </c>
-      <c r="D67" s="5">
+      <c r="E67" s="5">
         <f t="shared" si="1"/>
         <v>-1817</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -11268,14 +12282,17 @@
         <v>10000</v>
       </c>
       <c r="C68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D68" s="2">
         <v>7586.2</v>
       </c>
-      <c r="D68" s="5">
+      <c r="E68" s="5">
         <f t="shared" si="1"/>
         <v>-2413.8000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -11283,14 +12300,17 @@
         <v>10000</v>
       </c>
       <c r="C69" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D69" s="2">
         <v>8115.8</v>
       </c>
-      <c r="D69" s="5">
+      <c r="E69" s="5">
         <f t="shared" si="1"/>
         <v>-1884.1999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -11298,14 +12318,17 @@
         <v>10000</v>
       </c>
       <c r="C70" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D70" s="2">
         <v>5095</v>
       </c>
-      <c r="D70" s="5">
+      <c r="E70" s="5">
         <f t="shared" si="1"/>
         <v>-4905</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -11313,14 +12336,17 @@
         <v>10000</v>
       </c>
       <c r="C71" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D71" s="2">
         <v>5455.2</v>
       </c>
-      <c r="D71" s="5">
+      <c r="E71" s="5">
         <f t="shared" si="1"/>
         <v>-4544.8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>166</v>
       </c>
@@ -11328,14 +12354,17 @@
         <v>10000</v>
       </c>
       <c r="C72" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D72" s="2">
         <v>5033</v>
       </c>
-      <c r="D72" s="5">
+      <c r="E72" s="5">
         <f t="shared" si="1"/>
         <v>-4967</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>167</v>
       </c>
@@ -11343,14 +12372,17 @@
         <v>10000</v>
       </c>
       <c r="C73" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D73" s="2">
         <v>10013.799999999999</v>
       </c>
-      <c r="D73" s="5">
+      <c r="E73" s="5">
         <f t="shared" si="1"/>
         <v>13.799999999999272</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>168</v>
       </c>
@@ -11358,14 +12390,17 @@
         <v>10000</v>
       </c>
       <c r="C74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D74" s="2">
         <v>7352.6</v>
       </c>
-      <c r="D74" s="5">
+      <c r="E74" s="5">
         <f t="shared" si="1"/>
         <v>-2647.3999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>169</v>
       </c>
@@ -11373,14 +12408,17 @@
         <v>10000</v>
       </c>
       <c r="C75" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D75" s="2">
         <v>6687.4</v>
       </c>
-      <c r="D75" s="5">
+      <c r="E75" s="5">
         <f t="shared" si="1"/>
         <v>-3312.6000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -11388,14 +12426,17 @@
         <v>10000</v>
       </c>
       <c r="C76" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D76" s="2">
         <v>5354.2</v>
       </c>
-      <c r="D76" s="5">
+      <c r="E76" s="5">
         <f t="shared" si="1"/>
         <v>-4645.8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>171</v>
       </c>
@@ -11403,14 +12444,17 @@
         <v>10000</v>
       </c>
       <c r="C77" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D77" s="2">
         <v>7517.6</v>
       </c>
-      <c r="D77" s="5">
+      <c r="E77" s="5">
         <f t="shared" si="1"/>
         <v>-2482.3999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -11418,14 +12462,17 @@
         <v>10000</v>
       </c>
       <c r="C78" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D78" s="2">
         <v>6503.8</v>
       </c>
-      <c r="D78" s="5">
+      <c r="E78" s="5">
         <f t="shared" si="1"/>
         <v>-3496.2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -11433,14 +12480,17 @@
         <v>10000</v>
       </c>
       <c r="C79" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D79" s="2">
         <v>7762</v>
       </c>
-      <c r="D79" s="5">
+      <c r="E79" s="5">
         <f t="shared" si="1"/>
         <v>-2238</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -11448,14 +12498,17 @@
         <v>10000</v>
       </c>
       <c r="C80" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D80" s="2">
         <v>4491.6000000000004</v>
       </c>
-      <c r="D80" s="5">
+      <c r="E80" s="5">
         <f t="shared" si="1"/>
         <v>-5508.4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -11463,14 +12516,17 @@
         <v>10000</v>
       </c>
       <c r="C81" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D81" s="2">
         <v>5266.6</v>
       </c>
-      <c r="D81" s="5">
+      <c r="E81" s="5">
         <f t="shared" si="1"/>
         <v>-4733.3999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -11478,14 +12534,17 @@
         <v>10000</v>
       </c>
       <c r="C82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D82" s="2">
         <v>4445</v>
       </c>
-      <c r="D82" s="5">
+      <c r="E82" s="5">
         <f t="shared" si="1"/>
         <v>-5555</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>177</v>
       </c>
@@ -11493,14 +12552,17 @@
         <v>10000</v>
       </c>
       <c r="C83" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D83" s="2">
         <v>9602.4</v>
       </c>
-      <c r="D83" s="5">
+      <c r="E83" s="5">
         <f t="shared" si="1"/>
         <v>-397.60000000000036</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -11508,14 +12570,17 @@
         <v>10000</v>
       </c>
       <c r="C84" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D84" s="2">
         <v>8179.2</v>
       </c>
-      <c r="D84" s="5">
+      <c r="E84" s="5">
         <f t="shared" si="1"/>
         <v>-1820.8000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -11523,14 +12588,17 @@
         <v>10000</v>
       </c>
       <c r="C85" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D85" s="2">
         <v>9482.6</v>
       </c>
-      <c r="D85" s="5">
+      <c r="E85" s="5">
         <f t="shared" si="1"/>
         <v>-517.39999999999964</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -11538,14 +12606,17 @@
         <v>10000</v>
       </c>
       <c r="C86" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D86" s="2">
         <v>6039.6</v>
       </c>
-      <c r="D86" s="5">
+      <c r="E86" s="5">
         <f t="shared" si="1"/>
         <v>-3960.3999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -11553,14 +12624,17 @@
         <v>10000</v>
       </c>
       <c r="C87" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D87" s="2">
         <v>5793.8</v>
       </c>
-      <c r="D87" s="5">
+      <c r="E87" s="5">
         <f t="shared" si="1"/>
         <v>-4206.2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -11568,14 +12642,17 @@
         <v>10000</v>
       </c>
       <c r="C88" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D88" s="2">
         <v>4875.3999999999996</v>
       </c>
-      <c r="D88" s="5">
+      <c r="E88" s="5">
         <f t="shared" si="1"/>
         <v>-5124.6000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -11583,14 +12660,17 @@
         <v>10000</v>
       </c>
       <c r="C89" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D89" s="2">
         <v>6461.2</v>
       </c>
-      <c r="D89" s="5">
+      <c r="E89" s="5">
         <f t="shared" si="1"/>
         <v>-3538.8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -11598,14 +12678,17 @@
         <v>10000</v>
       </c>
       <c r="C90" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D90" s="2">
         <v>8761.4</v>
       </c>
-      <c r="D90" s="5">
+      <c r="E90" s="5">
         <f t="shared" si="1"/>
         <v>-1238.6000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -11613,14 +12696,17 @@
         <v>10000</v>
       </c>
       <c r="C91" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D91" s="2">
         <v>7000.6</v>
       </c>
-      <c r="D91" s="5">
+      <c r="E91" s="5">
         <f t="shared" si="1"/>
         <v>-2999.3999999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -11628,14 +12714,17 @@
         <v>10000</v>
       </c>
       <c r="C92" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D92" s="2">
         <v>5923.2</v>
       </c>
-      <c r="D92" s="5">
+      <c r="E92" s="5">
         <f t="shared" si="1"/>
         <v>-4076.8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>257</v>
       </c>
@@ -11643,14 +12732,17 @@
         <v>10000</v>
       </c>
       <c r="C93" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D93" s="2">
         <v>6715.8</v>
       </c>
-      <c r="D93" s="5">
+      <c r="E93" s="5">
         <f t="shared" si="1"/>
         <v>-3284.2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -11658,14 +12750,17 @@
         <v>10000</v>
       </c>
       <c r="C94" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D94" s="2">
         <v>6683.6</v>
       </c>
-      <c r="D94" s="5">
+      <c r="E94" s="5">
         <f t="shared" si="1"/>
         <v>-3316.3999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>259</v>
       </c>
@@ -11673,14 +12768,17 @@
         <v>10000</v>
       </c>
       <c r="C95" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D95" s="2">
         <v>4793</v>
       </c>
-      <c r="D95" s="5">
+      <c r="E95" s="5">
         <f t="shared" si="1"/>
         <v>-5207</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -11688,14 +12786,17 @@
         <v>10000</v>
       </c>
       <c r="C96" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D96" s="2">
         <v>4334.2</v>
       </c>
-      <c r="D96" s="5">
+      <c r="E96" s="5">
         <f t="shared" si="1"/>
         <v>-5665.8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>261</v>
       </c>
@@ -11703,14 +12804,17 @@
         <v>10000</v>
       </c>
       <c r="C97" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D97" s="2">
         <v>6718.4</v>
       </c>
-      <c r="D97" s="5">
+      <c r="E97" s="5">
         <f t="shared" si="1"/>
         <v>-3281.6000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>262</v>
       </c>
@@ -11718,14 +12822,17 @@
         <v>10000</v>
       </c>
       <c r="C98" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D98" s="2">
         <v>9958</v>
       </c>
-      <c r="D98" s="5">
+      <c r="E98" s="5">
         <f t="shared" si="1"/>
         <v>-42</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -11733,14 +12840,17 @@
         <v>10000</v>
       </c>
       <c r="C99" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D99" s="2">
         <v>6638</v>
       </c>
-      <c r="D99" s="5">
+      <c r="E99" s="5">
         <f t="shared" si="1"/>
         <v>-3362</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -11748,14 +12858,17 @@
         <v>10000</v>
       </c>
       <c r="C100" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D100" s="2">
         <v>7141.4</v>
       </c>
-      <c r="D100" s="5">
+      <c r="E100" s="5">
         <f t="shared" si="1"/>
         <v>-2858.6000000000004</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>265</v>
       </c>
@@ -11763,14 +12876,17 @@
         <v>10000</v>
       </c>
       <c r="C101" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D101" s="2">
         <v>7128.4</v>
       </c>
-      <c r="D101" s="5">
+      <c r="E101" s="5">
         <f t="shared" si="1"/>
         <v>-2871.6000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>266</v>
       </c>
@@ -11778,14 +12894,17 @@
         <v>10000</v>
       </c>
       <c r="C102" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D102" s="2">
         <v>7509.8</v>
       </c>
-      <c r="D102" s="5">
+      <c r="E102" s="5">
         <f t="shared" si="1"/>
         <v>-2490.1999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>267</v>
       </c>
@@ -11793,14 +12912,17 @@
         <v>10000</v>
       </c>
       <c r="C103" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D103" s="2">
         <v>7740.6</v>
       </c>
-      <c r="D103" s="5">
+      <c r="E103" s="5">
         <f t="shared" si="1"/>
         <v>-2259.3999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>268</v>
       </c>
@@ -11808,14 +12930,17 @@
         <v>10000</v>
       </c>
       <c r="C104" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D104" s="2">
         <v>7786.4</v>
       </c>
-      <c r="D104" s="5">
+      <c r="E104" s="5">
         <f t="shared" si="1"/>
         <v>-2213.6000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -11823,14 +12948,17 @@
         <v>10000</v>
       </c>
       <c r="C105" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D105" s="2">
         <v>5468.8</v>
       </c>
-      <c r="D105" s="5">
+      <c r="E105" s="5">
         <f t="shared" si="1"/>
         <v>-4531.2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>270</v>
       </c>
@@ -11838,14 +12966,17 @@
         <v>10000</v>
       </c>
       <c r="C106" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D106" s="2">
         <v>5736.2</v>
       </c>
-      <c r="D106" s="5">
+      <c r="E106" s="5">
         <f t="shared" si="1"/>
         <v>-4263.8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>271</v>
       </c>
@@ -11853,14 +12984,17 @@
         <v>10000</v>
       </c>
       <c r="C107" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D107" s="2">
         <v>5549.2</v>
       </c>
-      <c r="D107" s="5">
+      <c r="E107" s="5">
         <f t="shared" si="1"/>
         <v>-4450.8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>272</v>
       </c>
@@ -11868,14 +13002,17 @@
         <v>10000</v>
       </c>
       <c r="C108" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D108" s="2">
         <v>9112.7999999999993</v>
       </c>
-      <c r="D108" s="5">
+      <c r="E108" s="5">
         <f t="shared" si="1"/>
         <v>-887.20000000000073</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>273</v>
       </c>
@@ -11883,14 +13020,17 @@
         <v>10000</v>
       </c>
       <c r="C109" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D109" s="2">
         <v>6023.6</v>
       </c>
-      <c r="D109" s="5">
+      <c r="E109" s="5">
         <f t="shared" si="1"/>
         <v>-3976.3999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>274</v>
       </c>
@@ -11898,14 +13038,17 @@
         <v>10000</v>
       </c>
       <c r="C110" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D110" s="2">
         <v>6955.6</v>
       </c>
-      <c r="D110" s="5">
+      <c r="E110" s="5">
         <f t="shared" si="1"/>
         <v>-3044.3999999999996</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>275</v>
       </c>
@@ -11913,14 +13056,17 @@
         <v>10000</v>
       </c>
       <c r="C111" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D111" s="2">
         <v>6577.4</v>
       </c>
-      <c r="D111" s="5">
+      <c r="E111" s="5">
         <f t="shared" si="1"/>
         <v>-3422.6000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>276</v>
       </c>
@@ -11928,14 +13074,17 @@
         <v>10000</v>
       </c>
       <c r="C112" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D112" s="2">
         <v>7612.6</v>
       </c>
-      <c r="D112" s="5">
+      <c r="E112" s="5">
         <f t="shared" si="1"/>
         <v>-2387.3999999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>277</v>
       </c>
@@ -11943,14 +13092,17 @@
         <v>10000</v>
       </c>
       <c r="C113" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D113" s="2">
         <v>6871.8</v>
       </c>
-      <c r="D113" s="5">
+      <c r="E113" s="5">
         <f t="shared" si="1"/>
         <v>-3128.2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>278</v>
       </c>
@@ -11958,14 +13110,17 @@
         <v>10000</v>
       </c>
       <c r="C114" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D114" s="2">
         <v>7578.8</v>
       </c>
-      <c r="D114" s="5">
+      <c r="E114" s="5">
         <f t="shared" si="1"/>
         <v>-2421.1999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>279</v>
       </c>
@@ -11973,14 +13128,17 @@
         <v>10000</v>
       </c>
       <c r="C115" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D115" s="2">
         <v>5314.8</v>
       </c>
-      <c r="D115" s="5">
+      <c r="E115" s="5">
         <f t="shared" si="1"/>
         <v>-4685.2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>280</v>
       </c>
@@ -11988,14 +13146,17 @@
         <v>10000</v>
       </c>
       <c r="C116" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D116" s="2">
         <v>5043.8</v>
       </c>
-      <c r="D116" s="5">
+      <c r="E116" s="5">
         <f t="shared" si="1"/>
         <v>-4956.2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>281</v>
       </c>
@@ -12003,14 +13164,17 @@
         <v>10000</v>
       </c>
       <c r="C117" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D117" s="2">
         <v>5063.8</v>
       </c>
-      <c r="D117" s="5">
+      <c r="E117" s="5">
         <f t="shared" si="1"/>
         <v>-4936.2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>282</v>
       </c>
@@ -12018,14 +13182,17 @@
         <v>10000</v>
       </c>
       <c r="C118" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D118" s="2">
         <v>10105.799999999999</v>
       </c>
-      <c r="D118" s="5">
+      <c r="E118" s="5">
         <f t="shared" si="1"/>
         <v>105.79999999999927</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>283</v>
       </c>
@@ -12033,14 +13200,17 @@
         <v>10000</v>
       </c>
       <c r="C119" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D119" s="2">
         <v>10161.200000000001</v>
       </c>
-      <c r="D119" s="5">
+      <c r="E119" s="5">
         <f t="shared" si="1"/>
         <v>161.20000000000073</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>284</v>
       </c>
@@ -12048,14 +13218,17 @@
         <v>10000</v>
       </c>
       <c r="C120" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D120" s="2">
         <v>11010.8</v>
       </c>
-      <c r="D120" s="5">
+      <c r="E120" s="5">
         <f t="shared" si="1"/>
         <v>1010.7999999999993</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>285</v>
       </c>
@@ -12063,14 +13236,17 @@
         <v>10000</v>
       </c>
       <c r="C121" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D121" s="2">
         <v>7918.2</v>
       </c>
-      <c r="D121" s="5">
+      <c r="E121" s="5">
         <f t="shared" si="1"/>
         <v>-2081.8000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>286</v>
       </c>
@@ -12078,14 +13254,17 @@
         <v>10000</v>
       </c>
       <c r="C122" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D122" s="2">
         <v>7989</v>
       </c>
-      <c r="D122" s="5">
+      <c r="E122" s="5">
         <f t="shared" si="1"/>
         <v>-2011</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>287</v>
       </c>
@@ -12093,14 +13272,17 @@
         <v>10000</v>
       </c>
       <c r="C123" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D123" s="2">
         <v>7712.6</v>
       </c>
-      <c r="D123" s="5">
+      <c r="E123" s="5">
         <f t="shared" si="1"/>
         <v>-2287.3999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>288</v>
       </c>
@@ -12108,14 +13290,17 @@
         <v>10000</v>
       </c>
       <c r="C124" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D124" s="2">
         <v>8049.6</v>
       </c>
-      <c r="D124" s="5">
+      <c r="E124" s="5">
         <f t="shared" si="1"/>
         <v>-1950.3999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>289</v>
       </c>
@@ -12123,14 +13308,17 @@
         <v>10000</v>
       </c>
       <c r="C125" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D125" s="2">
         <v>8355</v>
       </c>
-      <c r="D125" s="5">
+      <c r="E125" s="5">
         <f t="shared" si="1"/>
         <v>-1645</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>290</v>
       </c>
@@ -12138,14 +13326,17 @@
         <v>10000</v>
       </c>
       <c r="C126" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D126" s="2">
         <v>7959</v>
       </c>
-      <c r="D126" s="5">
+      <c r="E126" s="5">
         <f t="shared" si="1"/>
         <v>-2041</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>291</v>
       </c>
@@ -12153,14 +13344,17 @@
         <v>10000</v>
       </c>
       <c r="C127" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D127" s="2">
         <v>6317.8</v>
       </c>
-      <c r="D127" s="5">
+      <c r="E127" s="5">
         <f t="shared" si="1"/>
         <v>-3682.2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>292</v>
       </c>
@@ -12168,14 +13362,17 @@
         <v>10000</v>
       </c>
       <c r="C128" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D128" s="2">
         <v>7742.8</v>
       </c>
-      <c r="D128" s="5">
+      <c r="E128" s="5">
         <f t="shared" si="1"/>
         <v>-2257.1999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>293</v>
       </c>
@@ -12183,14 +13380,17 @@
         <v>10000</v>
       </c>
       <c r="C129" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D129" s="2">
         <v>6005.2</v>
       </c>
-      <c r="D129" s="5">
+      <c r="E129" s="5">
         <f t="shared" si="1"/>
         <v>-3994.8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>294</v>
       </c>
@@ -12198,14 +13398,17 @@
         <v>10000</v>
       </c>
       <c r="C130" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D130" s="2">
         <v>5513.6</v>
       </c>
-      <c r="D130" s="5">
-        <f t="shared" ref="D130:D193" si="2">C130-B130</f>
+      <c r="E130" s="5">
+        <f t="shared" ref="E130:E193" si="2">D130-C130</f>
         <v>-4486.3999999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>295</v>
       </c>
@@ -12213,14 +13416,17 @@
         <v>10000</v>
       </c>
       <c r="C131" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D131" s="2">
         <v>5567.8</v>
       </c>
-      <c r="D131" s="5">
+      <c r="E131" s="5">
         <f t="shared" si="2"/>
         <v>-4432.2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -12228,14 +13434,17 @@
         <v>10000</v>
       </c>
       <c r="C132" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D132" s="2">
         <v>6318.4</v>
       </c>
-      <c r="D132" s="5">
+      <c r="E132" s="5">
         <f t="shared" si="2"/>
         <v>-3681.6000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -12243,14 +13452,17 @@
         <v>10000</v>
       </c>
       <c r="C133" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D133" s="2">
         <v>5654.4</v>
       </c>
-      <c r="D133" s="5">
+      <c r="E133" s="5">
         <f t="shared" si="2"/>
         <v>-4345.6000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>298</v>
       </c>
@@ -12258,14 +13470,17 @@
         <v>10000</v>
       </c>
       <c r="C134" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D134" s="2">
         <v>6563</v>
       </c>
-      <c r="D134" s="5">
+      <c r="E134" s="5">
         <f t="shared" si="2"/>
         <v>-3437</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>299</v>
       </c>
@@ -12273,14 +13488,17 @@
         <v>10000</v>
       </c>
       <c r="C135" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D135" s="2">
         <v>3929.8</v>
       </c>
-      <c r="D135" s="5">
+      <c r="E135" s="5">
         <f t="shared" si="2"/>
         <v>-6070.2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>300</v>
       </c>
@@ -12288,14 +13506,17 @@
         <v>10000</v>
       </c>
       <c r="C136" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D136" s="2">
         <v>4758.6000000000004</v>
       </c>
-      <c r="D136" s="5">
+      <c r="E136" s="5">
         <f t="shared" si="2"/>
         <v>-5241.3999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>301</v>
       </c>
@@ -12303,14 +13524,17 @@
         <v>10000</v>
       </c>
       <c r="C137" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D137" s="2">
         <v>3664.6</v>
       </c>
-      <c r="D137" s="5">
+      <c r="E137" s="5">
         <f t="shared" si="2"/>
         <v>-6335.4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>302</v>
       </c>
@@ -12318,14 +13542,17 @@
         <v>10000</v>
       </c>
       <c r="C138" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D138" s="2">
         <v>9147.6</v>
       </c>
-      <c r="D138" s="5">
+      <c r="E138" s="5">
         <f t="shared" si="2"/>
         <v>-852.39999999999964</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>303</v>
       </c>
@@ -12333,14 +13560,17 @@
         <v>10000</v>
       </c>
       <c r="C139" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D139" s="2">
         <v>8534.2000000000007</v>
       </c>
-      <c r="D139" s="5">
+      <c r="E139" s="5">
         <f t="shared" si="2"/>
         <v>-1465.7999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>304</v>
       </c>
@@ -12348,14 +13578,17 @@
         <v>10000</v>
       </c>
       <c r="C140" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D140" s="2">
         <v>9447.6</v>
       </c>
-      <c r="D140" s="5">
+      <c r="E140" s="5">
         <f t="shared" si="2"/>
         <v>-552.39999999999964</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>305</v>
       </c>
@@ -12363,14 +13596,17 @@
         <v>10000</v>
       </c>
       <c r="C141" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D141" s="2">
         <v>5931.6</v>
       </c>
-      <c r="D141" s="5">
+      <c r="E141" s="5">
         <f t="shared" si="2"/>
         <v>-4068.3999999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>306</v>
       </c>
@@ -12378,14 +13614,17 @@
         <v>10000</v>
       </c>
       <c r="C142" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D142" s="2">
         <v>6186.2</v>
       </c>
-      <c r="D142" s="5">
+      <c r="E142" s="5">
         <f t="shared" si="2"/>
         <v>-3813.8</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>307</v>
       </c>
@@ -12393,14 +13632,17 @@
         <v>10000</v>
       </c>
       <c r="C143" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D143" s="2">
         <v>5631.4</v>
       </c>
-      <c r="D143" s="5">
+      <c r="E143" s="5">
         <f t="shared" si="2"/>
         <v>-4368.6000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>308</v>
       </c>
@@ -12408,14 +13650,17 @@
         <v>10000</v>
       </c>
       <c r="C144" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D144" s="2">
         <v>6373.2</v>
       </c>
-      <c r="D144" s="5">
+      <c r="E144" s="5">
         <f t="shared" si="2"/>
         <v>-3626.8</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>309</v>
       </c>
@@ -12423,14 +13668,17 @@
         <v>10000</v>
       </c>
       <c r="C145" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D145" s="2">
         <v>7470</v>
       </c>
-      <c r="D145" s="5">
+      <c r="E145" s="5">
         <f t="shared" si="2"/>
         <v>-2530</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>310</v>
       </c>
@@ -12438,14 +13686,17 @@
         <v>10000</v>
       </c>
       <c r="C146" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D146" s="2">
         <v>6826</v>
       </c>
-      <c r="D146" s="5">
+      <c r="E146" s="5">
         <f t="shared" si="2"/>
         <v>-3174</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>311</v>
       </c>
@@ -12453,14 +13704,17 @@
         <v>10000</v>
       </c>
       <c r="C147" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D147" s="2">
         <v>4949.8</v>
       </c>
-      <c r="D147" s="5">
+      <c r="E147" s="5">
         <f t="shared" si="2"/>
         <v>-5050.2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -12468,14 +13722,17 @@
         <v>10000</v>
       </c>
       <c r="C148" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D148" s="2">
         <v>8621.4</v>
       </c>
-      <c r="D148" s="5">
+      <c r="E148" s="5">
         <f t="shared" si="2"/>
         <v>-1378.6000000000004</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>313</v>
       </c>
@@ -12483,14 +13740,17 @@
         <v>10000</v>
       </c>
       <c r="C149" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D149" s="2">
         <v>8074.2</v>
       </c>
-      <c r="D149" s="5">
+      <c r="E149" s="5">
         <f t="shared" si="2"/>
         <v>-1925.8000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>314</v>
       </c>
@@ -12498,14 +13758,17 @@
         <v>10000</v>
       </c>
       <c r="C150" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D150" s="2">
         <v>8540.6</v>
       </c>
-      <c r="D150" s="5">
+      <c r="E150" s="5">
         <f t="shared" si="2"/>
         <v>-1459.3999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>315</v>
       </c>
@@ -12513,14 +13776,17 @@
         <v>10000</v>
       </c>
       <c r="C151" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D151" s="2">
         <v>5577</v>
       </c>
-      <c r="D151" s="5">
+      <c r="E151" s="5">
         <f t="shared" si="2"/>
         <v>-4423</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -12528,14 +13794,17 @@
         <v>10000</v>
       </c>
       <c r="C152" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D152" s="2">
         <v>6209</v>
       </c>
-      <c r="D152" s="5">
+      <c r="E152" s="5">
         <f t="shared" si="2"/>
         <v>-3791</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>317</v>
       </c>
@@ -12543,14 +13812,17 @@
         <v>10000</v>
       </c>
       <c r="C153" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D153" s="2">
         <v>4731</v>
       </c>
-      <c r="D153" s="5">
+      <c r="E153" s="5">
         <f t="shared" si="2"/>
         <v>-5269</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -12558,14 +13830,17 @@
         <v>10000</v>
       </c>
       <c r="C154" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D154" s="2">
         <v>6124</v>
       </c>
-      <c r="D154" s="5">
+      <c r="E154" s="5">
         <f t="shared" si="2"/>
         <v>-3876</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -12573,14 +13848,17 @@
         <v>10000</v>
       </c>
       <c r="C155" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D155" s="2">
         <v>7063.4</v>
       </c>
-      <c r="D155" s="5">
+      <c r="E155" s="5">
         <f t="shared" si="2"/>
         <v>-2936.6000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>320</v>
       </c>
@@ -12588,14 +13866,17 @@
         <v>10000</v>
       </c>
       <c r="C156" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D156" s="2">
         <v>6051.6</v>
       </c>
-      <c r="D156" s="5">
+      <c r="E156" s="5">
         <f t="shared" si="2"/>
         <v>-3948.3999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>321</v>
       </c>
@@ -12603,14 +13884,17 @@
         <v>10000</v>
       </c>
       <c r="C157" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D157" s="2">
         <v>4502.2</v>
       </c>
-      <c r="D157" s="5">
+      <c r="E157" s="5">
         <f t="shared" si="2"/>
         <v>-5497.8</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>322</v>
       </c>
@@ -12618,14 +13902,17 @@
         <v>10000</v>
       </c>
       <c r="C158" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D158" s="2">
         <v>8138.2</v>
       </c>
-      <c r="D158" s="5">
+      <c r="E158" s="5">
         <f t="shared" si="2"/>
         <v>-1861.8000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>323</v>
       </c>
@@ -12633,14 +13920,17 @@
         <v>10000</v>
       </c>
       <c r="C159" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D159" s="2">
         <v>9705.4</v>
       </c>
-      <c r="D159" s="5">
+      <c r="E159" s="5">
         <f t="shared" si="2"/>
         <v>-294.60000000000036</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>324</v>
       </c>
@@ -12648,14 +13938,17 @@
         <v>10000</v>
       </c>
       <c r="C160" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D160" s="2">
         <v>8512</v>
       </c>
-      <c r="D160" s="5">
+      <c r="E160" s="5">
         <f t="shared" si="2"/>
         <v>-1488</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>325</v>
       </c>
@@ -12663,14 +13956,17 @@
         <v>10000</v>
       </c>
       <c r="C161" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D161" s="2">
         <v>5153.8</v>
       </c>
-      <c r="D161" s="5">
+      <c r="E161" s="5">
         <f t="shared" si="2"/>
         <v>-4846.2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>326</v>
       </c>
@@ -12678,14 +13974,17 @@
         <v>10000</v>
       </c>
       <c r="C162" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D162" s="2">
         <v>6367.6</v>
       </c>
-      <c r="D162" s="5">
+      <c r="E162" s="5">
         <f t="shared" si="2"/>
         <v>-3632.3999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>383</v>
       </c>
@@ -12693,14 +13992,17 @@
         <v>10000</v>
       </c>
       <c r="C163" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D163" s="2">
         <v>7893</v>
       </c>
-      <c r="D163" s="5">
+      <c r="E163" s="5">
         <f t="shared" si="2"/>
         <v>-2107</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>384</v>
       </c>
@@ -12708,14 +14010,17 @@
         <v>10000</v>
       </c>
       <c r="C164" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D164" s="2">
         <v>5501.2</v>
       </c>
-      <c r="D164" s="5">
+      <c r="E164" s="5">
         <f t="shared" si="2"/>
         <v>-4498.8</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>385</v>
       </c>
@@ -12723,14 +14028,17 @@
         <v>10000</v>
       </c>
       <c r="C165" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D165" s="2">
         <v>5781.4</v>
       </c>
-      <c r="D165" s="5">
+      <c r="E165" s="5">
         <f t="shared" si="2"/>
         <v>-4218.6000000000004</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>386</v>
       </c>
@@ -12738,14 +14046,17 @@
         <v>10000</v>
       </c>
       <c r="C166" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D166" s="2">
         <v>5924</v>
       </c>
-      <c r="D166" s="5">
+      <c r="E166" s="5">
         <f t="shared" si="2"/>
         <v>-4076</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>387</v>
       </c>
@@ -12753,14 +14064,17 @@
         <v>10000</v>
       </c>
       <c r="C167" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D167" s="2">
         <v>6120</v>
       </c>
-      <c r="D167" s="5">
+      <c r="E167" s="5">
         <f t="shared" si="2"/>
         <v>-3880</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>388</v>
       </c>
@@ -12768,14 +14082,17 @@
         <v>10000</v>
       </c>
       <c r="C168" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D168" s="2">
         <v>5705.6</v>
       </c>
-      <c r="D168" s="5">
+      <c r="E168" s="5">
         <f t="shared" si="2"/>
         <v>-4294.3999999999996</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>389</v>
       </c>
@@ -12783,14 +14100,17 @@
         <v>10000</v>
       </c>
       <c r="C169" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D169" s="2">
         <v>7217</v>
       </c>
-      <c r="D169" s="5">
+      <c r="E169" s="5">
         <f t="shared" si="2"/>
         <v>-2783</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>390</v>
       </c>
@@ -12798,14 +14118,17 @@
         <v>10000</v>
       </c>
       <c r="C170" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D170" s="2">
         <v>4208.6000000000004</v>
       </c>
-      <c r="D170" s="5">
+      <c r="E170" s="5">
         <f t="shared" si="2"/>
         <v>-5791.4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>391</v>
       </c>
@@ -12813,14 +14136,17 @@
         <v>10000</v>
       </c>
       <c r="C171" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D171" s="2">
         <v>5869.8</v>
       </c>
-      <c r="D171" s="5">
+      <c r="E171" s="5">
         <f t="shared" si="2"/>
         <v>-4130.2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>392</v>
       </c>
@@ -12828,14 +14154,17 @@
         <v>10000</v>
       </c>
       <c r="C172" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D172" s="2">
         <v>5991</v>
       </c>
-      <c r="D172" s="5">
+      <c r="E172" s="5">
         <f t="shared" si="2"/>
         <v>-4009</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>393</v>
       </c>
@@ -12843,14 +14172,17 @@
         <v>10000</v>
       </c>
       <c r="C173" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D173" s="2">
         <v>8693.7999999999993</v>
       </c>
-      <c r="D173" s="5">
+      <c r="E173" s="5">
         <f t="shared" si="2"/>
         <v>-1306.2000000000007</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>394</v>
       </c>
@@ -12858,14 +14190,17 @@
         <v>10000</v>
       </c>
       <c r="C174" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D174" s="2">
         <v>8655</v>
       </c>
-      <c r="D174" s="5">
+      <c r="E174" s="5">
         <f t="shared" si="2"/>
         <v>-1345</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>395</v>
       </c>
@@ -12873,14 +14208,17 @@
         <v>10000</v>
       </c>
       <c r="C175" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D175" s="2">
         <v>9188.4</v>
       </c>
-      <c r="D175" s="5">
+      <c r="E175" s="5">
         <f t="shared" si="2"/>
         <v>-811.60000000000036</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>396</v>
       </c>
@@ -12888,14 +14226,17 @@
         <v>10000</v>
       </c>
       <c r="C176" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D176" s="2">
         <v>6663.8</v>
       </c>
-      <c r="D176" s="5">
+      <c r="E176" s="5">
         <f t="shared" si="2"/>
         <v>-3336.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>397</v>
       </c>
@@ -12903,14 +14244,17 @@
         <v>10000</v>
       </c>
       <c r="C177" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D177" s="2">
         <v>6514.6</v>
       </c>
-      <c r="D177" s="5">
+      <c r="E177" s="5">
         <f t="shared" si="2"/>
         <v>-3485.3999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>398</v>
       </c>
@@ -12918,14 +14262,17 @@
         <v>10000</v>
       </c>
       <c r="C178" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D178" s="2">
         <v>6543.2</v>
       </c>
-      <c r="D178" s="5">
+      <c r="E178" s="5">
         <f t="shared" si="2"/>
         <v>-3456.8</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>399</v>
       </c>
@@ -12933,14 +14280,17 @@
         <v>10000</v>
       </c>
       <c r="C179" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D179" s="2">
         <v>6612.2</v>
       </c>
-      <c r="D179" s="5">
+      <c r="E179" s="5">
         <f t="shared" si="2"/>
         <v>-3387.8</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>400</v>
       </c>
@@ -12948,14 +14298,17 @@
         <v>10000</v>
       </c>
       <c r="C180" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D180" s="2">
         <v>7636.8</v>
       </c>
-      <c r="D180" s="5">
+      <c r="E180" s="5">
         <f t="shared" si="2"/>
         <v>-2363.1999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>401</v>
       </c>
@@ -12963,14 +14316,17 @@
         <v>10000</v>
       </c>
       <c r="C181" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D181" s="2">
         <v>6643.4</v>
       </c>
-      <c r="D181" s="5">
+      <c r="E181" s="5">
         <f t="shared" si="2"/>
         <v>-3356.6000000000004</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>402</v>
       </c>
@@ -12978,14 +14334,17 @@
         <v>10000</v>
       </c>
       <c r="C182" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D182" s="2">
         <v>5500.4</v>
       </c>
-      <c r="D182" s="5">
+      <c r="E182" s="5">
         <f t="shared" si="2"/>
         <v>-4499.6000000000004</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>403</v>
       </c>
@@ -12993,14 +14352,17 @@
         <v>10000</v>
       </c>
       <c r="C183" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D183" s="2">
         <v>8011</v>
       </c>
-      <c r="D183" s="5">
+      <c r="E183" s="5">
         <f t="shared" si="2"/>
         <v>-1989</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>404</v>
       </c>
@@ -13008,14 +14370,17 @@
         <v>10000</v>
       </c>
       <c r="C184" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D184" s="2">
         <v>8384.6</v>
       </c>
-      <c r="D184" s="5">
+      <c r="E184" s="5">
         <f t="shared" si="2"/>
         <v>-1615.3999999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>405</v>
       </c>
@@ -13023,14 +14388,17 @@
         <v>10000</v>
       </c>
       <c r="C185" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D185" s="2">
         <v>8136.2</v>
       </c>
-      <c r="D185" s="5">
+      <c r="E185" s="5">
         <f t="shared" si="2"/>
         <v>-1863.8000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>406</v>
       </c>
@@ -13038,14 +14406,17 @@
         <v>10000</v>
       </c>
       <c r="C186" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D186" s="2">
         <v>6348.4</v>
       </c>
-      <c r="D186" s="5">
+      <c r="E186" s="5">
         <f t="shared" si="2"/>
         <v>-3651.6000000000004</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>407</v>
       </c>
@@ -13053,14 +14424,17 @@
         <v>10000</v>
       </c>
       <c r="C187" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D187" s="2">
         <v>6471.8</v>
       </c>
-      <c r="D187" s="5">
+      <c r="E187" s="5">
         <f t="shared" si="2"/>
         <v>-3528.2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>408</v>
       </c>
@@ -13068,14 +14442,17 @@
         <v>10000</v>
       </c>
       <c r="C188" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D188" s="2">
         <v>5167.8</v>
       </c>
-      <c r="D188" s="5">
+      <c r="E188" s="5">
         <f t="shared" si="2"/>
         <v>-4832.2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>409</v>
       </c>
@@ -13083,14 +14460,17 @@
         <v>10000</v>
       </c>
       <c r="C189" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D189" s="2">
         <v>6522.8</v>
       </c>
-      <c r="D189" s="5">
+      <c r="E189" s="5">
         <f t="shared" si="2"/>
         <v>-3477.2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>410</v>
       </c>
@@ -13098,14 +14478,17 @@
         <v>10000</v>
       </c>
       <c r="C190" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D190" s="2">
         <v>7031.2</v>
       </c>
-      <c r="D190" s="5">
+      <c r="E190" s="5">
         <f t="shared" si="2"/>
         <v>-2968.8</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>411</v>
       </c>
@@ -13113,14 +14496,17 @@
         <v>10000</v>
       </c>
       <c r="C191" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D191" s="2">
         <v>6286</v>
       </c>
-      <c r="D191" s="5">
+      <c r="E191" s="5">
         <f t="shared" si="2"/>
         <v>-3714</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>412</v>
       </c>
@@ -13128,14 +14514,17 @@
         <v>10000</v>
       </c>
       <c r="C192" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D192" s="2">
         <v>5212.6000000000004</v>
       </c>
-      <c r="D192" s="5">
+      <c r="E192" s="5">
         <f t="shared" si="2"/>
         <v>-4787.3999999999996</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>413</v>
       </c>
@@ -13143,14 +14532,17 @@
         <v>10000</v>
       </c>
       <c r="C193" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D193" s="2">
         <v>8966.6</v>
       </c>
-      <c r="D193" s="5">
+      <c r="E193" s="5">
         <f t="shared" si="2"/>
         <v>-1033.3999999999996</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>414</v>
       </c>
@@ -13158,14 +14550,17 @@
         <v>10000</v>
       </c>
       <c r="C194" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D194" s="2">
         <v>9448</v>
       </c>
-      <c r="D194" s="5">
-        <f t="shared" ref="D194:D255" si="3">C194-B194</f>
+      <c r="E194" s="5">
+        <f t="shared" ref="E194:E255" si="3">D194-C194</f>
         <v>-552</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>415</v>
       </c>
@@ -13173,14 +14568,17 @@
         <v>10000</v>
       </c>
       <c r="C195" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D195" s="2">
         <v>8903.7999999999993</v>
       </c>
-      <c r="D195" s="5">
+      <c r="E195" s="5">
         <f t="shared" si="3"/>
         <v>-1096.2000000000007</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -13188,14 +14586,17 @@
         <v>10000</v>
       </c>
       <c r="C196" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D196" s="2">
         <v>7056.2</v>
       </c>
-      <c r="D196" s="5">
+      <c r="E196" s="5">
         <f t="shared" si="3"/>
         <v>-2943.8</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>417</v>
       </c>
@@ -13203,14 +14604,17 @@
         <v>10000</v>
       </c>
       <c r="C197" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D197" s="2">
         <v>7077</v>
       </c>
-      <c r="D197" s="5">
+      <c r="E197" s="5">
         <f t="shared" si="3"/>
         <v>-2923</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>418</v>
       </c>
@@ -13218,14 +14622,17 @@
         <v>10000</v>
       </c>
       <c r="C198" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D198" s="2">
         <v>7591.8</v>
       </c>
-      <c r="D198" s="5">
+      <c r="E198" s="5">
         <f t="shared" si="3"/>
         <v>-2408.1999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>419</v>
       </c>
@@ -13233,14 +14640,17 @@
         <v>10000</v>
       </c>
       <c r="C199" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D199" s="2">
         <v>7031</v>
       </c>
-      <c r="D199" s="5">
+      <c r="E199" s="5">
         <f t="shared" si="3"/>
         <v>-2969</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>420</v>
       </c>
@@ -13248,14 +14658,17 @@
         <v>10000</v>
       </c>
       <c r="C200" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D200" s="2">
         <v>7753.4</v>
       </c>
-      <c r="D200" s="5">
+      <c r="E200" s="5">
         <f t="shared" si="3"/>
         <v>-2246.6000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>421</v>
       </c>
@@ -13263,14 +14676,17 @@
         <v>10000</v>
       </c>
       <c r="C201" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D201" s="2">
         <v>4729.8</v>
       </c>
-      <c r="D201" s="5">
+      <c r="E201" s="5">
         <f t="shared" si="3"/>
         <v>-5270.2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>422</v>
       </c>
@@ -13278,14 +14694,17 @@
         <v>10000</v>
       </c>
       <c r="C202" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D202" s="2">
         <v>4667.2</v>
       </c>
-      <c r="D202" s="5">
+      <c r="E202" s="5">
         <f t="shared" si="3"/>
         <v>-5332.8</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>423</v>
       </c>
@@ -13293,14 +14712,17 @@
         <v>10000</v>
       </c>
       <c r="C203" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D203" s="2">
         <v>4376.2</v>
       </c>
-      <c r="D203" s="5">
+      <c r="E203" s="5">
         <f t="shared" si="3"/>
         <v>-5623.8</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>424</v>
       </c>
@@ -13308,14 +14730,17 @@
         <v>10000</v>
       </c>
       <c r="C204" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D204" s="2">
         <v>5113.2</v>
       </c>
-      <c r="D204" s="5">
+      <c r="E204" s="5">
         <f t="shared" si="3"/>
         <v>-4886.8</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>425</v>
       </c>
@@ -13323,14 +14748,17 @@
         <v>10000</v>
       </c>
       <c r="C205" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D205" s="2">
         <v>6071.6</v>
       </c>
-      <c r="D205" s="5">
+      <c r="E205" s="5">
         <f t="shared" si="3"/>
         <v>-3928.3999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>426</v>
       </c>
@@ -13338,14 +14766,17 @@
         <v>10000</v>
       </c>
       <c r="C206" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D206" s="2">
         <v>5180.8</v>
       </c>
-      <c r="D206" s="5">
+      <c r="E206" s="5">
         <f t="shared" si="3"/>
         <v>-4819.2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>427</v>
       </c>
@@ -13353,14 +14784,17 @@
         <v>10000</v>
       </c>
       <c r="C207" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D207" s="2">
         <v>4307.2</v>
       </c>
-      <c r="D207" s="5">
+      <c r="E207" s="5">
         <f t="shared" si="3"/>
         <v>-5692.8</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>428</v>
       </c>
@@ -13368,14 +14802,17 @@
         <v>10000</v>
       </c>
       <c r="C208" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D208" s="2">
         <v>8191.2</v>
       </c>
-      <c r="D208" s="5">
+      <c r="E208" s="5">
         <f t="shared" si="3"/>
         <v>-1808.8000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>429</v>
       </c>
@@ -13383,14 +14820,17 @@
         <v>10000</v>
       </c>
       <c r="C209" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D209" s="2">
         <v>8526.7999999999993</v>
       </c>
-      <c r="D209" s="5">
+      <c r="E209" s="5">
         <f t="shared" si="3"/>
         <v>-1473.2000000000007</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>430</v>
       </c>
@@ -13398,14 +14838,17 @@
         <v>10000</v>
       </c>
       <c r="C210" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D210" s="2">
         <v>7955.8</v>
       </c>
-      <c r="D210" s="5">
+      <c r="E210" s="5">
         <f t="shared" si="3"/>
         <v>-2044.1999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>431</v>
       </c>
@@ -13413,14 +14856,17 @@
         <v>10000</v>
       </c>
       <c r="C211" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D211" s="2">
         <v>5305.4</v>
       </c>
-      <c r="D211" s="5">
+      <c r="E211" s="5">
         <f t="shared" si="3"/>
         <v>-4694.6000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>432</v>
       </c>
@@ -13428,14 +14874,17 @@
         <v>10000</v>
       </c>
       <c r="C212" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D212" s="2">
         <v>6211.2</v>
       </c>
-      <c r="D212" s="5">
+      <c r="E212" s="5">
         <f t="shared" si="3"/>
         <v>-3788.8</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>433</v>
       </c>
@@ -13443,14 +14892,17 @@
         <v>10000</v>
       </c>
       <c r="C213" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D213" s="2">
         <v>7789.2</v>
       </c>
-      <c r="D213" s="5">
+      <c r="E213" s="5">
         <f t="shared" si="3"/>
         <v>-2210.8000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>434</v>
       </c>
@@ -13458,14 +14910,17 @@
         <v>10000</v>
       </c>
       <c r="C214" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D214" s="2">
         <v>8043.6</v>
       </c>
-      <c r="D214" s="5">
+      <c r="E214" s="5">
         <f t="shared" si="3"/>
         <v>-1956.3999999999996</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>435</v>
       </c>
@@ -13473,14 +14928,17 @@
         <v>10000</v>
       </c>
       <c r="C215" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D215" s="2">
         <v>7538.8</v>
       </c>
-      <c r="D215" s="5">
+      <c r="E215" s="5">
         <f t="shared" si="3"/>
         <v>-2461.1999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>436</v>
       </c>
@@ -13488,14 +14946,17 @@
         <v>10000</v>
       </c>
       <c r="C216" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D216" s="2">
         <v>4612.3999999999996</v>
       </c>
-      <c r="D216" s="5">
+      <c r="E216" s="5">
         <f t="shared" si="3"/>
         <v>-5387.6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>437</v>
       </c>
@@ -13503,14 +14964,17 @@
         <v>10000</v>
       </c>
       <c r="C217" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D217" s="2">
         <v>5738.4</v>
       </c>
-      <c r="D217" s="5">
+      <c r="E217" s="5">
         <f t="shared" si="3"/>
         <v>-4261.6000000000004</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>438</v>
       </c>
@@ -13518,14 +14982,17 @@
         <v>10000</v>
       </c>
       <c r="C218" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D218" s="2">
         <v>8630.4</v>
       </c>
-      <c r="D218" s="5">
+      <c r="E218" s="5">
         <f t="shared" si="3"/>
         <v>-1369.6000000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>467</v>
       </c>
@@ -13533,14 +15000,17 @@
         <v>10000</v>
       </c>
       <c r="C219" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D219" s="2">
         <v>6748.4</v>
       </c>
-      <c r="D219" s="5">
+      <c r="E219" s="5">
         <f t="shared" si="3"/>
         <v>-3251.6000000000004</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>468</v>
       </c>
@@ -13548,14 +15018,17 @@
         <v>10000</v>
       </c>
       <c r="C220" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D220" s="2">
         <v>7098</v>
       </c>
-      <c r="D220" s="5">
+      <c r="E220" s="5">
         <f t="shared" si="3"/>
         <v>-2902</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>469</v>
       </c>
@@ -13563,14 +15036,17 @@
         <v>10000</v>
       </c>
       <c r="C221" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D221" s="2">
         <v>7540.2</v>
       </c>
-      <c r="D221" s="5">
+      <c r="E221" s="5">
         <f t="shared" si="3"/>
         <v>-2459.8000000000002</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>470</v>
       </c>
@@ -13578,14 +15054,17 @@
         <v>10000</v>
       </c>
       <c r="C222" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D222" s="2">
         <v>4973</v>
       </c>
-      <c r="D222" s="5">
+      <c r="E222" s="5">
         <f t="shared" si="3"/>
         <v>-5027</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>471</v>
       </c>
@@ -13593,14 +15072,17 @@
         <v>10000</v>
       </c>
       <c r="C223" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D223" s="2">
         <v>5469.6</v>
       </c>
-      <c r="D223" s="5">
+      <c r="E223" s="5">
         <f t="shared" si="3"/>
         <v>-4530.3999999999996</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>472</v>
       </c>
@@ -13608,14 +15090,17 @@
         <v>10000</v>
       </c>
       <c r="C224" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D224" s="2">
         <v>5927.4</v>
       </c>
-      <c r="D224" s="5">
+      <c r="E224" s="5">
         <f t="shared" si="3"/>
         <v>-4072.6000000000004</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>473</v>
       </c>
@@ -13623,14 +15108,17 @@
         <v>10000</v>
       </c>
       <c r="C225" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D225" s="2">
         <v>5488.4</v>
       </c>
-      <c r="D225" s="5">
+      <c r="E225" s="5">
         <f t="shared" si="3"/>
         <v>-4511.6000000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>474</v>
       </c>
@@ -13638,14 +15126,17 @@
         <v>10000</v>
       </c>
       <c r="C226" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D226" s="2">
         <v>6396.4</v>
       </c>
-      <c r="D226" s="5">
+      <c r="E226" s="5">
         <f t="shared" si="3"/>
         <v>-3603.6000000000004</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>475</v>
       </c>
@@ -13653,14 +15144,17 @@
         <v>10000</v>
       </c>
       <c r="C227" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D227" s="2">
         <v>6476.6</v>
       </c>
-      <c r="D227" s="5">
+      <c r="E227" s="5">
         <f t="shared" si="3"/>
         <v>-3523.3999999999996</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>476</v>
       </c>
@@ -13668,14 +15162,17 @@
         <v>10000</v>
       </c>
       <c r="C228" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D228" s="2">
         <v>5135.8</v>
       </c>
-      <c r="D228" s="5">
+      <c r="E228" s="5">
         <f t="shared" si="3"/>
         <v>-4864.2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>477</v>
       </c>
@@ -13683,14 +15180,17 @@
         <v>10000</v>
       </c>
       <c r="C229" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D229" s="2">
         <v>7251.8</v>
       </c>
-      <c r="D229" s="5">
+      <c r="E229" s="5">
         <f t="shared" si="3"/>
         <v>-2748.2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>478</v>
       </c>
@@ -13698,14 +15198,17 @@
         <v>10000</v>
       </c>
       <c r="C230" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D230" s="2">
         <v>8217.7999999999993</v>
       </c>
-      <c r="D230" s="5">
+      <c r="E230" s="5">
         <f t="shared" si="3"/>
         <v>-1782.2000000000007</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>479</v>
       </c>
@@ -13713,14 +15216,17 @@
         <v>10000</v>
       </c>
       <c r="C231" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D231" s="2">
         <v>7669.6</v>
       </c>
-      <c r="D231" s="5">
+      <c r="E231" s="5">
         <f t="shared" si="3"/>
         <v>-2330.3999999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>480</v>
       </c>
@@ -13728,14 +15234,17 @@
         <v>10000</v>
       </c>
       <c r="C232" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D232" s="2">
         <v>5271.6</v>
       </c>
-      <c r="D232" s="5">
+      <c r="E232" s="5">
         <f t="shared" si="3"/>
         <v>-4728.3999999999996</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>481</v>
       </c>
@@ -13743,14 +15252,17 @@
         <v>10000</v>
       </c>
       <c r="C233" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D233" s="2">
         <v>6336.2</v>
       </c>
-      <c r="D233" s="5">
+      <c r="E233" s="5">
         <f t="shared" si="3"/>
         <v>-3663.8</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>482</v>
       </c>
@@ -13758,14 +15270,17 @@
         <v>10000</v>
       </c>
       <c r="C234" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D234" s="2">
         <v>7234.8</v>
       </c>
-      <c r="D234" s="5">
+      <c r="E234" s="5">
         <f t="shared" si="3"/>
         <v>-2765.2</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>483</v>
       </c>
@@ -13773,14 +15288,17 @@
         <v>10000</v>
       </c>
       <c r="C235" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D235" s="2">
         <v>7277.4</v>
       </c>
-      <c r="D235" s="5">
+      <c r="E235" s="5">
         <f t="shared" si="3"/>
         <v>-2722.6000000000004</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>484</v>
       </c>
@@ -13788,14 +15306,17 @@
         <v>10000</v>
       </c>
       <c r="C236" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D236" s="2">
         <v>7381.4</v>
       </c>
-      <c r="D236" s="5">
+      <c r="E236" s="5">
         <f t="shared" si="3"/>
         <v>-2618.6000000000004</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>485</v>
       </c>
@@ -13803,14 +15324,17 @@
         <v>10000</v>
       </c>
       <c r="C237" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D237" s="2">
         <v>5940.2</v>
       </c>
-      <c r="D237" s="5">
+      <c r="E237" s="5">
         <f t="shared" si="3"/>
         <v>-4059.8</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>486</v>
       </c>
@@ -13818,14 +15342,17 @@
         <v>10000</v>
       </c>
       <c r="C238" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D238" s="2">
         <v>6400</v>
       </c>
-      <c r="D238" s="5">
+      <c r="E238" s="5">
         <f t="shared" si="3"/>
         <v>-3600</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>487</v>
       </c>
@@ -13833,14 +15360,17 @@
         <v>10000</v>
       </c>
       <c r="C239" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D239" s="2">
         <v>8264.4</v>
       </c>
-      <c r="D239" s="5">
+      <c r="E239" s="5">
         <f t="shared" si="3"/>
         <v>-1735.6000000000004</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>488</v>
       </c>
@@ -13848,14 +15378,17 @@
         <v>10000</v>
       </c>
       <c r="C240" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D240" s="2">
         <v>6012.6</v>
       </c>
-      <c r="D240" s="5">
+      <c r="E240" s="5">
         <f t="shared" si="3"/>
         <v>-3987.3999999999996</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>489</v>
       </c>
@@ -13863,14 +15396,17 @@
         <v>10000</v>
       </c>
       <c r="C241" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D241" s="2">
         <v>6727.6</v>
       </c>
-      <c r="D241" s="5">
+      <c r="E241" s="5">
         <f t="shared" si="3"/>
         <v>-3272.3999999999996</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>490</v>
       </c>
@@ -13878,14 +15414,17 @@
         <v>10000</v>
       </c>
       <c r="C242" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D242" s="2">
         <v>6209.6</v>
       </c>
-      <c r="D242" s="5">
+      <c r="E242" s="5">
         <f t="shared" si="3"/>
         <v>-3790.3999999999996</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>491</v>
       </c>
@@ -13893,14 +15432,17 @@
         <v>10000</v>
       </c>
       <c r="C243" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D243" s="2">
         <v>4378.8</v>
       </c>
-      <c r="D243" s="5">
+      <c r="E243" s="5">
         <f t="shared" si="3"/>
         <v>-5621.2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>492</v>
       </c>
@@ -13908,14 +15450,17 @@
         <v>10000</v>
       </c>
       <c r="C244" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D244" s="2">
         <v>4906.8</v>
       </c>
-      <c r="D244" s="5">
+      <c r="E244" s="5">
         <f t="shared" si="3"/>
         <v>-5093.2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>493</v>
       </c>
@@ -13923,14 +15468,17 @@
         <v>10000</v>
       </c>
       <c r="C245" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D245" s="2">
         <v>7402</v>
       </c>
-      <c r="D245" s="5">
+      <c r="E245" s="5">
         <f t="shared" si="3"/>
         <v>-2598</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>494</v>
       </c>
@@ -13938,14 +15486,17 @@
         <v>10000</v>
       </c>
       <c r="C246" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D246" s="2">
         <v>7115.8</v>
       </c>
-      <c r="D246" s="5">
+      <c r="E246" s="5">
         <f t="shared" si="3"/>
         <v>-2884.2</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>503</v>
       </c>
@@ -13953,14 +15504,17 @@
         <v>10000</v>
       </c>
       <c r="C247" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D247" s="2">
         <v>5984.2</v>
       </c>
-      <c r="D247" s="5">
+      <c r="E247" s="5">
         <f t="shared" si="3"/>
         <v>-4015.8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>504</v>
       </c>
@@ -13968,14 +15522,17 @@
         <v>10000</v>
       </c>
       <c r="C248" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D248" s="2">
         <v>7449.6</v>
       </c>
-      <c r="D248" s="5">
+      <c r="E248" s="5">
         <f t="shared" si="3"/>
         <v>-2550.3999999999996</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>505</v>
       </c>
@@ -13983,14 +15540,17 @@
         <v>10000</v>
       </c>
       <c r="C249" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D249" s="2">
         <v>7043.6</v>
       </c>
-      <c r="D249" s="5">
+      <c r="E249" s="5">
         <f t="shared" si="3"/>
         <v>-2956.3999999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>506</v>
       </c>
@@ -13998,14 +15558,17 @@
         <v>10000</v>
       </c>
       <c r="C250" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D250" s="2">
         <v>5815</v>
       </c>
-      <c r="D250" s="5">
+      <c r="E250" s="5">
         <f t="shared" si="3"/>
         <v>-4185</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>507</v>
       </c>
@@ -14013,14 +15576,17 @@
         <v>10000</v>
       </c>
       <c r="C251" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D251" s="2">
         <v>6099.4</v>
       </c>
-      <c r="D251" s="5">
+      <c r="E251" s="5">
         <f t="shared" si="3"/>
         <v>-3900.6000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>508</v>
       </c>
@@ -14028,14 +15594,17 @@
         <v>10000</v>
       </c>
       <c r="C252" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D252" s="2">
         <v>8018.2</v>
       </c>
-      <c r="D252" s="5">
+      <c r="E252" s="5">
         <f t="shared" si="3"/>
         <v>-1981.8000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>509</v>
       </c>
@@ -14043,14 +15612,17 @@
         <v>10000</v>
       </c>
       <c r="C253" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D253" s="2">
         <v>6711</v>
       </c>
-      <c r="D253" s="5">
+      <c r="E253" s="5">
         <f t="shared" si="3"/>
         <v>-3289</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>510</v>
       </c>
@@ -14058,14 +15630,17 @@
         <v>10000</v>
       </c>
       <c r="C254" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D254" s="2">
         <v>6184.2</v>
       </c>
-      <c r="D254" s="5">
+      <c r="E254" s="5">
         <f t="shared" si="3"/>
         <v>-3815.8</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>512</v>
       </c>
@@ -14073,15 +15648,18 @@
         <v>10000</v>
       </c>
       <c r="C255" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D255" s="2">
         <v>6607.4</v>
       </c>
-      <c r="D255" s="5">
+      <c r="E255" s="5">
         <f t="shared" si="3"/>
         <v>-3392.6000000000004</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D255">
+  <conditionalFormatting sqref="E1:E255">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
